--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9B6FE-1299-4D27-8DB8-DDCD96DAD81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DF559-F88A-4702-BDC7-5F9F6B0CB538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
-  <si>
-    <t>VVSS, Info Romana, 2023-2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="113">
   <si>
     <t>Lab02. Black-box Testing. ECP, BVA</t>
   </si>
@@ -287,9 +284,6 @@
     <t>Re-tested</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>results</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>DONE</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
   </si>
   <si>
     <t>TC2_BVA</t>
-  </si>
-  <si>
-    <t>error message</t>
   </si>
   <si>
     <t>task created</t>
@@ -391,12 +379,6 @@
     <t>Adaugarea unui nou task</t>
   </si>
   <si>
-    <t>daca taskul se repeta atunci se alege si intervalul la care se repeta</t>
-  </si>
-  <si>
-    <t>Task(titlu, data/ora inceput, data/ora sfarsit)</t>
-  </si>
-  <si>
     <t>1 &lt;= len(titlu) &lt;= 255</t>
   </si>
   <si>
@@ -474,15 +456,6 @@
     </r>
   </si>
   <si>
-    <t>test is String length in (0,256)</t>
-  </si>
-  <si>
-    <t>start is in (1969-12-31, 2026-01-01)</t>
-  </si>
-  <si>
-    <t>date = 2026-01-01</t>
-  </si>
-  <si>
     <t>date = 2025-12-31</t>
   </si>
   <si>
@@ -493,6 +466,54 @@
   </si>
   <si>
     <t>length = 1, description = "T"</t>
+  </si>
+  <si>
+    <t>daca taskul se repeta atunci se pune repeat = 1</t>
+  </si>
+  <si>
+    <t>task = Task(String title, Date start, Date end, int interval)</t>
+  </si>
+  <si>
+    <t>String title</t>
+  </si>
+  <si>
+    <t>Date start</t>
+  </si>
+  <si>
+    <t>Date end</t>
+  </si>
+  <si>
+    <t>int interval</t>
+  </si>
+  <si>
+    <t>VVSS, Info Romana, 2024-2025</t>
+  </si>
+  <si>
+    <t>Task(titlu, data/ora inceput, data/ora sfarsit, interval)</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>test is String length in [1,255]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length = 2, </t>
+  </si>
+  <si>
+    <t>length = 254</t>
+  </si>
+  <si>
+    <t>start is in [1969-12-31, 2026-01-01]</t>
+  </si>
+  <si>
+    <t>exception</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1234,9 +1255,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1290,209 +1308,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,74 +1318,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,6 +1370,231 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1895,8 +1905,8 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,40 +1920,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
+      <c r="H1" s="30" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="H1" s="30" t="s">
-        <v>1</v>
       </c>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="H2" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2">
         <v>236</v>
@@ -1951,10 +1961,10 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2">
         <v>236</v>
@@ -1963,7 +1973,7 @@
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="21"/>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1971,22 +1981,22 @@
     <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2008,7 +2018,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2021,22 +2031,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>83</v>
+        <v>38</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2045,8 +2058,25 @@
     <row r="24" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
     </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
       <c r="C32" s="29"/>
     </row>
   </sheetData>
@@ -2067,7 +2097,7 @@
   <dimension ref="B1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J11:L14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,84 +2118,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="G5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="G5" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="G6" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="H6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="I6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="79"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>86</v>
+      <c r="C7" s="97" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="77"/>
+        <v>81</v>
+      </c>
+      <c r="G7" s="105"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="31"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -2177,13 +2207,13 @@
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="77"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="31"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -2195,40 +2225,40 @@
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="78"/>
+        <v>82</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="82"/>
+        <v>87</v>
+      </c>
+      <c r="M9" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="93"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>91</v>
+      <c r="C10" s="97" t="s">
+        <v>85</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="32"/>
@@ -2243,134 +2273,134 @@
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="141">
+      <c r="G11" s="67">
         <v>1</v>
       </c>
-      <c r="H11" s="142">
-        <v>2</v>
-      </c>
-      <c r="I11" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="143">
+      <c r="H11" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="69">
         <v>45262</v>
       </c>
-      <c r="K11" s="143">
+      <c r="K11" s="69">
         <v>45371</v>
       </c>
-      <c r="L11" s="142">
+      <c r="L11" s="68">
         <v>1</v>
       </c>
-      <c r="M11" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="145"/>
+      <c r="M11" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="109"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="61">
+        <v>2</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="131">
-        <v>2</v>
-      </c>
-      <c r="H12" s="132">
-        <v>3</v>
-      </c>
-      <c r="I12" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="133">
+      <c r="J12" s="63">
         <v>45028</v>
       </c>
-      <c r="K12" s="133">
+      <c r="K12" s="63">
         <v>45743</v>
       </c>
-      <c r="L12" s="132">
+      <c r="L12" s="62">
         <v>1</v>
       </c>
-      <c r="M12" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="135"/>
+      <c r="M12" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="113"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>23</v>
+      <c r="C13" s="97" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="141">
+      <c r="G13" s="67">
         <v>3</v>
       </c>
-      <c r="H13" s="146">
-        <v>5</v>
-      </c>
-      <c r="I13" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="143">
+      <c r="H13" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="69">
         <v>37367</v>
       </c>
-      <c r="K13" s="147">
+      <c r="K13" s="71">
         <v>45743</v>
       </c>
-      <c r="L13" s="142">
+      <c r="L13" s="68">
         <v>1</v>
       </c>
-      <c r="M13" s="144" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="145"/>
+      <c r="M13" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="109"/>
     </row>
     <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="136">
+      <c r="G14" s="64">
         <v>4</v>
       </c>
-      <c r="H14" s="137">
-        <v>6</v>
-      </c>
-      <c r="I14" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="138">
+      <c r="H14" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="66">
         <v>46138</v>
       </c>
-      <c r="K14" s="133">
+      <c r="K14" s="63">
         <v>45743</v>
       </c>
-      <c r="L14" s="137">
+      <c r="L14" s="65">
         <v>1</v>
       </c>
-      <c r="M14" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="140"/>
+      <c r="M14" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>23</v>
+      <c r="C15" s="96" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2378,33 +2408,33 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="75"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="95"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="10"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="62" t="s">
-        <v>23</v>
+      <c r="C17" s="96" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2413,7 +2443,7 @@
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
@@ -2421,8 +2451,8 @@
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>23</v>
+      <c r="C19" s="96" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2431,7 +2461,7 @@
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
@@ -2440,7 +2470,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2448,11 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C13:C14"/>
@@ -2469,6 +2494,11 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="H6:H9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2482,8 +2512,8 @@
   </sheetPr>
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K8:N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,280 +2535,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
+      <c r="B3" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="70" t="s">
+      <c r="H6" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="I6" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="J6" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="K6" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="126"/>
+    </row>
+    <row r="7" spans="2:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="97">
+        <v>1</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="91"/>
-    </row>
-    <row r="7" spans="2:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63">
+      <c r="P7" s="93"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="107"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="82"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="73"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="136">
+      <c r="H8" s="74">
         <v>1</v>
       </c>
-      <c r="H8" s="152">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66">
+        <v>45743</v>
+      </c>
+      <c r="M8" s="66">
+        <v>45743</v>
+      </c>
+      <c r="N8" s="65">
         <v>1</v>
       </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138">
-        <v>45743</v>
-      </c>
-      <c r="M8" s="138">
-        <v>45743</v>
-      </c>
-      <c r="N8" s="137">
-        <v>1</v>
-      </c>
-      <c r="O8" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="155"/>
+      <c r="O8" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="121"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="73"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="149">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="130">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="36">
         <v>45743</v>
       </c>
-      <c r="M9" s="130">
+      <c r="M9" s="36">
         <v>45743</v>
       </c>
-      <c r="N9" s="129">
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="156"/>
+      <c r="O9" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="89"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="136">
+        <v>61</v>
+      </c>
+      <c r="G10" s="64">
         <v>3</v>
       </c>
-      <c r="H10" s="152">
+      <c r="H10" s="74">
         <v>3</v>
       </c>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="154" t="s">
+      <c r="I10" s="75"/>
+      <c r="J10" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="66">
+        <v>45743</v>
+      </c>
+      <c r="M10" s="66">
+        <v>45743</v>
+      </c>
+      <c r="N10" s="65">
+        <v>1</v>
+      </c>
+      <c r="O10" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="138">
-        <v>45743</v>
-      </c>
-      <c r="M10" s="138">
-        <v>45743</v>
-      </c>
-      <c r="N10" s="137">
-        <v>1</v>
-      </c>
-      <c r="O10" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="155"/>
+      <c r="P10" s="121"/>
     </row>
     <row r="11" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63">
+      <c r="B11" s="97">
         <v>2</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>100</v>
+      <c r="C11" s="127" t="s">
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="13">
         <v>4</v>
       </c>
-      <c r="H11" s="149">
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="151" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="130">
+      <c r="I11" s="57"/>
+      <c r="J11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="36">
         <v>37370</v>
       </c>
-      <c r="M11" s="130">
+      <c r="M11" s="36">
         <v>46021</v>
       </c>
-      <c r="N11" s="129">
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="O11" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="156"/>
+      <c r="O11" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="89"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="73"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="64">
+        <v>5</v>
+      </c>
+      <c r="H12" s="74">
+        <v>5</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="136">
-        <v>5</v>
-      </c>
-      <c r="H12" s="152">
-        <v>5</v>
-      </c>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="138">
+      <c r="K12" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="66">
         <v>25568</v>
       </c>
-      <c r="M12" s="138">
+      <c r="M12" s="66">
         <v>46022</v>
       </c>
-      <c r="N12" s="137">
+      <c r="N12" s="65">
         <v>1</v>
       </c>
-      <c r="O12" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="155"/>
+      <c r="O12" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="121"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="73"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G13" s="13">
         <v>6</v>
@@ -2787,18 +2817,16 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="118"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="B14" s="98"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="2"/>
       <c r="G14" s="13">
         <v>7</v>
       </c>
@@ -2806,21 +2834,21 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="63">
+      <c r="B15" s="97">
         <v>3</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>23</v>
+      <c r="C15" s="127" t="s">
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="G15" s="13">
         <v>8</v>
@@ -2829,17 +2857,17 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="118"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="73"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G16" s="13">
         <v>9</v>
@@ -2851,14 +2879,14 @@
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="118"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
-      <c r="C17" s="84"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="13">
         <v>10</v>
@@ -2870,14 +2898,14 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="13">
         <v>11</v>
@@ -2889,14 +2917,14 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="118"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="13">
         <v>12</v>
@@ -2908,87 +2936,93 @@
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="118"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="63">
+      <c r="B21" s="97">
         <v>4</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>23</v>
+      <c r="C21" s="127" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="128"/>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="128"/>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="84"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="128"/>
       <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="148"/>
+        <v>22</v>
+      </c>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="84"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="85"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
       <c r="N26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="I27:M27"/>
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="B3:G3"/>
@@ -3005,18 +3039,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3030,8 +3058,8 @@
   </sheetPr>
   <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,373 +3076,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="C4" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="D4" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="E4" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="F4" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="92"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="158"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="159">
+      <c r="E6" s="59"/>
+      <c r="F6" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="79">
         <v>45262</v>
       </c>
-      <c r="H6" s="159">
+      <c r="H6" s="79">
         <v>45371</v>
       </c>
-      <c r="I6" s="158">
+      <c r="I6" s="78">
         <v>1</v>
       </c>
-      <c r="J6" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="127" t="s">
-        <v>79</v>
+      <c r="J6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="138">
+      <c r="C7" s="156"/>
+      <c r="D7" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="66">
         <v>45028</v>
       </c>
-      <c r="H7" s="138">
+      <c r="H7" s="66">
         <v>45743</v>
       </c>
-      <c r="I7" s="137">
+      <c r="I7" s="65">
         <v>1</v>
       </c>
-      <c r="J7" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="163" t="s">
-        <v>79</v>
+      <c r="J7" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="159">
+      <c r="C8" s="156"/>
+      <c r="D8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="79">
         <v>37367</v>
       </c>
-      <c r="H8" s="159">
+      <c r="H8" s="79">
         <v>45743</v>
       </c>
-      <c r="I8" s="158">
+      <c r="I8" s="78">
         <v>1</v>
       </c>
-      <c r="J8" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="127" t="s">
-        <v>79</v>
+      <c r="J8" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="161" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="138">
+      <c r="C9" s="156"/>
+      <c r="D9" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="66">
         <v>46138</v>
       </c>
-      <c r="H9" s="138">
+      <c r="H9" s="66">
         <v>45743</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="65">
         <v>1</v>
       </c>
-      <c r="J9" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="163" t="s">
-        <v>79</v>
+      <c r="J9" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138">
+      <c r="C10" s="156"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66">
         <v>45743</v>
       </c>
-      <c r="H10" s="138">
+      <c r="H10" s="66">
         <v>45743</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="65">
         <v>1</v>
       </c>
-      <c r="J10" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="163" t="s">
-        <v>79</v>
+      <c r="J10" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="128" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="160" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="159">
+      <c r="C11" s="156"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="79">
         <v>45743</v>
       </c>
-      <c r="H11" s="159">
+      <c r="H11" s="79">
         <v>45743</v>
       </c>
-      <c r="I11" s="158">
+      <c r="I11" s="78">
         <v>1</v>
       </c>
-      <c r="J11" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="127" t="s">
-        <v>79</v>
+      <c r="J11" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="154" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="138">
+      <c r="C12" s="156"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="66">
         <v>45743</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="66">
         <v>45743</v>
       </c>
-      <c r="I12" s="137">
+      <c r="I12" s="65">
         <v>1</v>
       </c>
-      <c r="J12" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="163" t="s">
-        <v>79</v>
+      <c r="J12" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="157" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="159">
+      <c r="C13" s="156"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="79">
         <v>37370</v>
       </c>
-      <c r="H13" s="159">
+      <c r="H13" s="79">
         <v>46021</v>
       </c>
-      <c r="I13" s="158">
+      <c r="I13" s="78">
         <v>1</v>
       </c>
-      <c r="J13" s="127" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="127" t="s">
-        <v>79</v>
+      <c r="J13" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="138">
+      <c r="C14" s="156"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="66">
         <v>25568</v>
       </c>
-      <c r="H14" s="138">
+      <c r="H14" s="66">
         <v>46022</v>
       </c>
-      <c r="I14" s="137">
+      <c r="I14" s="65">
         <v>1</v>
       </c>
-      <c r="J14" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="163" t="s">
-        <v>79</v>
+      <c r="J14" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="57"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
@@ -3433,7 +3461,7 @@
     </row>
     <row r="19" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -3443,102 +3471,102 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="95" t="s">
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="95" t="s">
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
-    </row>
-    <row r="22" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="113" t="s">
+      <c r="D22" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="E22" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="F22" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="G22" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="123" t="s">
+      <c r="H22" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="120"/>
-      <c r="J22" s="70" t="s">
+      <c r="I22" s="141"/>
+      <c r="J22" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="114" t="s">
+      <c r="L22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="114" t="s">
+      <c r="M22" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="114" t="s">
+      <c r="P22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="115" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="115"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="22">
         <v>9</v>
@@ -3549,27 +3577,27 @@
       <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="53">
         <v>1</v>
       </c>
-      <c r="G24" s="55">
+      <c r="G24" s="54">
         <v>1</v>
       </c>
-      <c r="H24" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="111"/>
+      <c r="H24" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="146"/>
       <c r="J24" s="2">
         <v>5</v>
       </c>
       <c r="K24" s="2">
         <v>5</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <v>0</v>
       </c>
-      <c r="M24" s="56" t="s">
-        <v>74</v>
+      <c r="M24" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="N24" s="2">
         <v>5</v>
@@ -3577,7 +3605,7 @@
       <c r="O24" s="2">
         <v>5</v>
       </c>
-      <c r="P24" s="54">
+      <c r="P24" s="53">
         <v>0</v>
       </c>
     </row>
@@ -3586,23 +3614,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="F4:I4"/>
@@ -3614,6 +3625,23 @@
     <mergeCell ref="C6:C17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:I23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3622,15 +3650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3774,6 +3793,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3781,14 +3809,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153A5999-B236-48B1-944C-C5EB94545735}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3806,6 +3826,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
